--- a/docs/游戏详细设计.xlsx
+++ b/docs/游戏详细设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="444" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="444" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="装备" sheetId="5" r:id="rId5"/>
     <sheet name="道具" sheetId="6" r:id="rId6"/>
     <sheet name="地图" sheetId="7" r:id="rId7"/>
+    <sheet name="关卡1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="227">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怒龙现身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>命中率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>霹雳狂龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>苍龙动天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>惊雷地狱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一定概率造成敌方麻痹。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,14 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加友方伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害+30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>失心咒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,18 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>落魄咒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低敌方防御力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御-30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,18 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨侠客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>近战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,10 +629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -693,10 +646,6 @@
   </si>
   <si>
     <t>移动路径：直线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人的法术攻击,攻击一条直线。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -844,12 +793,136 @@
     <t>远程攻击伤害+20%，距离5(2)以外不被发现，距离5(2)以内正对被发现，侧对50%被发现，背对不被发现。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>010
+121
+010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人的扔出一枚炸弹，爆炸会波及周围敌人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉雷破2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊雷地狱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围法术攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加友方伤害，提高一定暴击率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害+30%，暴击率+40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉雷破，惊雷地狱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒龙现身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霹雳狂龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒龙现身，霹雳狂龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法防-30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落魄咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低敌方法术防御力，并造成少量伤害。（注：伤害在法防降后结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战神诀，落魄咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：
+buff暂时都为持续4回合。
+除特殊说明，同一技能的buff不可叠加。（比如两次暴击+40%，仍为40%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土匪：一开始不移动，若在其AP可达区域内某一点P，在P点可使用燃烧弹攻击到敌人，则移动到P点使用燃烧弹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强盗：一开始不移动，有人过河后，开始行动。攻击过河的人，或者随机选择。（寻敌有点复杂，还没好，先随机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河流和山崖为不可通过、不可停留区域，森林效果可暂时不管。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +969,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -905,7 +985,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -913,11 +993,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -938,6 +1098,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1004,6 +1175,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1189,11 +1361,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="273101696"/>
-        <c:axId val="273102256"/>
+        <c:axId val="265528432"/>
+        <c:axId val="265530112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="273101696"/>
+        <c:axId val="265528432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1408,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273102256"/>
+        <c:crossAx val="265530112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1244,7 +1416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273102256"/>
+        <c:axId val="265530112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1467,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273101696"/>
+        <c:crossAx val="265528432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2222,70 +2394,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" t="s">
-        <v>77</v>
-      </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>131</v>
+      </c>
+      <c r="P1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2294,89 +2469,92 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H2">
         <v>7</v>
       </c>
       <c r="I2">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>60</v>
+      </c>
+      <c r="M2">
         <v>50</v>
       </c>
-      <c r="K2">
-        <v>40</v>
-      </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>30</v>
-      </c>
       <c r="N2">
-        <v>40</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>198</v>
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
       <c r="I3">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+      <c r="L3">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>30</v>
       </c>
-      <c r="L3">
-        <v>60</v>
-      </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
       <c r="N3">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2385,13 +2563,13 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="J4">
         <v>35</v>
@@ -2408,51 +2586,21 @@
       <c r="N4">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>200</v>
-      </c>
-      <c r="J8">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>30</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>20</v>
-      </c>
-      <c r="N8">
-        <v>40</v>
-      </c>
-      <c r="O8" t="s">
-        <v>137</v>
+      <c r="P4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O6" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2467,74 +2615,113 @@
         <v>200</v>
       </c>
       <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="L9">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
         <v>40</v>
       </c>
-      <c r="M9">
-        <v>200</v>
-      </c>
-      <c r="N9">
-        <v>30</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
+      <c r="O9" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>200</v>
       </c>
       <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
         <v>30</v>
       </c>
-      <c r="K10">
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
         <v>200</v>
       </c>
-      <c r="L10">
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>5</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>25</v>
       </c>
-      <c r="O10" t="s">
-        <v>174</v>
+      <c r="O11" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2554,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -2563,22 +2750,22 @@
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -2587,18 +2774,18 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -2616,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L2">
         <v>40</v>
@@ -2624,13 +2811,13 @@
     </row>
     <row r="3" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2645,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L3">
         <v>50</v>
@@ -2656,13 +2843,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -2680,24 +2867,24 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L4">
         <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2715,24 +2902,24 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L5">
         <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -2750,27 +2937,27 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L8">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2778,217 +2965,220 @@
       <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>70</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="K9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10">
         <v>60</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="N9">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6">
+        <v>60</v>
+      </c>
+      <c r="G11">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6">
-        <v>80</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="K11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11">
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12">
         <v>120</v>
       </c>
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" t="s">
-        <v>138</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="M16" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>15</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -3000,27 +3190,24 @@
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>15</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -3032,10 +3219,10 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -3043,16 +3230,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20" s="6">
-        <v>95</v>
+        <v>15</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -3064,10 +3251,10 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M20" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N20">
         <v>5</v>
@@ -3075,16 +3262,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21" s="6">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3096,57 +3283,98 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N21">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6">
+        <v>85</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>216</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25">
         <v>15</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <v>80</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>2</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="I24">
-        <v>2111</v>
-      </c>
-      <c r="L24">
+      <c r="I25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="I27" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>185</v>
+    <row r="28" spans="1:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="I28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3171,34 +3399,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3447,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>50</v>
@@ -3425,55 +3653,55 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J27" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J29" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="N34" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3504,45 +3732,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -3550,13 +3778,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -3565,18 +3793,18 @@
         <v>10</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -3584,13 +3812,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3599,21 +3827,21 @@
         <v>10</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -3624,13 +3852,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -3642,21 +3870,21 @@
         <v>10</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -3667,13 +3895,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -3684,13 +3912,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -3701,13 +3929,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F15">
         <v>30</v>
@@ -3718,13 +3946,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D17">
         <v>30</v>
@@ -3735,13 +3963,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -3749,13 +3977,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D19">
         <v>20</v>
@@ -3764,7 +3992,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3791,39 +4019,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3837,7 +4065,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3850,97 +4078,97 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3948,121 +4176,469 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="15"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="15"/>
+      <c r="R5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="15"/>
+      <c r="R6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="15"/>
+      <c r="R8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/游戏详细设计.xlsx
+++ b/docs/游戏详细设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="444" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="444"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="243">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,10 +758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A身法：agility_A，B身法：agility_A，技能命中率：accuracy，命中率加成：hitRateInc，回避率加成：avoidRateInc。A命中率增加，hitRateInc为+；B回避率增加，avoidRateInc为+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普攻accuracy为1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -888,33 +884,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土匪：一开始不移动，若在其AP可达区域内某一点P，在P点可使用燃烧弹攻击到敌人，则移动到P点使用燃烧弹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强盗：一开始不移动，有人过河后，开始行动。攻击过河的人，或者随机选择。（寻敌有点复杂，还没好，先随机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河流和山崖为不可通过、不可停留区域，森林效果可暂时不管。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始道具：草药*5，仙丹*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>注：
 buff暂时都为持续4回合。
-除特殊说明，同一技能的buff不可叠加。（比如两次暴击+40%，仍为40%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土匪：一开始不移动，若在其AP可达区域内某一点P，在P点可使用燃烧弹攻击到敌人，则移动到P点使用燃烧弹。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强盗：一开始不移动，有人过河后，开始行动。攻击过河的人，或者随机选择。（寻敌有点复杂，还没好，先随机）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河流和山崖为不可通过、不可停留区域，森林效果可暂时不管。</t>
+除特殊说明，同一技能的buff不可叠加（比如两次暴击+40%，仍为40%），但重新施用后刷新剩余回合数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A身法：agility_A，B身法：agility_B，技能命中率：accuracy，命中率加成：hitRateInc，回避率加成：avoidRateInc。A命中率增加，hitRateInc为+；B回避率增加，avoidRateInc为+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扇</t>
+  </si>
+  <si>
+    <t>铁骨扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的纸扇改装而成，可以此练习最基本的使扇方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁制的扇骨会对敌人造成较大的威胁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜短剑</t>
+  </si>
+  <si>
+    <t>青铜制成，上铸有简单的图案纹饰，初学者练习常用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁齿剑</t>
+  </si>
+  <si>
+    <t>铁制的短剑，边缘带齿</t>
+  </si>
+  <si>
+    <t>扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜短剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,11 +1421,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="265528432"/>
-        <c:axId val="265530112"/>
+        <c:axId val="204321712"/>
+        <c:axId val="204322272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="265528432"/>
+        <c:axId val="204321712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1468,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265530112"/>
+        <c:crossAx val="204322272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1416,7 +1476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265530112"/>
+        <c:axId val="204322272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1527,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265528432"/>
+        <c:crossAx val="204321712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2394,15 +2454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2446,12 +2506,15 @@
         <v>131</v>
       </c>
       <c r="P1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+      <c r="S1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -2493,21 +2556,24 @@
         <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+      <c r="S2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
       </c>
       <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
         <v>202</v>
-      </c>
-      <c r="D3" t="s">
-        <v>203</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2516,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -2540,12 +2606,15 @@
         <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+      <c r="S3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -2587,15 +2656,18 @@
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+      <c r="S4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="O6" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2633,7 +2705,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2671,7 +2743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2720,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2779,7 +2851,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -2811,7 +2883,7 @@
     </row>
     <row r="3" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2945,13 +3017,13 @@
     </row>
     <row r="9" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" t="s">
         <v>206</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>207</v>
-      </c>
-      <c r="D9" t="s">
-        <v>208</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -2966,7 +3038,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K9" t="s">
         <v>54</v>
@@ -2977,7 +3049,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -3094,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -3123,7 +3195,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3149,7 +3221,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -3178,7 +3250,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -3207,7 +3279,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -3233,13 +3305,13 @@
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -3254,7 +3326,7 @@
         <v>56</v>
       </c>
       <c r="M20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N20">
         <v>5</v>
@@ -3294,13 +3366,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" t="s">
         <v>217</v>
       </c>
-      <c r="C22" t="s">
-        <v>218</v>
-      </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -3324,7 +3396,7 @@
         <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N22">
         <v>5</v>
@@ -3335,7 +3407,7 @@
         <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -3353,7 +3425,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L25">
         <v>50</v>
@@ -3364,7 +3436,7 @@
         <v>167</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -3439,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3683,25 +3755,25 @@
         <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3715,15 +3787,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="2" max="2" width="52.375" customWidth="1"/>
     <col min="10" max="10" width="14.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3753,7 +3825,7 @@
         <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>26</v>
@@ -3995,9 +4067,72 @@
         <v>116</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>237</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4123,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -4157,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -4303,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4404,7 +4539,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="15"/>
       <c r="R5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4425,7 +4560,7 @@
       <c r="O6" s="16"/>
       <c r="P6" s="15"/>
       <c r="R6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4468,7 +4603,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="15"/>
       <c r="R8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4508,6 +4643,9 @@
       <c r="N10" s="15"/>
       <c r="O10" s="16"/>
       <c r="P10" s="15"/>
+      <c r="R10" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
@@ -4587,15 +4725,15 @@
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>

--- a/docs/游戏详细设计.xlsx
+++ b/docs/游戏详细设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="444"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="444" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -900,10 +900,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强盗：一开始不移动，有人过河后，开始行动。攻击过河的人，或者随机选择。（寻敌有点复杂，还没好，先随机）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>河流和山崖为不可通过、不可停留区域，森林效果可暂时不管。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -975,6 +971,10 @@
   </si>
   <si>
     <t>飞刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强盗：一开始不移动，有人过河后，开始行动。寻敌：已过河，然后随机选择，选择好后之后回合不改变。（寻敌有点复杂，还没好，先随机）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1235,7 +1235,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1421,11 +1420,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="204321712"/>
-        <c:axId val="204322272"/>
+        <c:axId val="273330048"/>
+        <c:axId val="273330608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204321712"/>
+        <c:axId val="273330048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1467,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204322272"/>
+        <c:crossAx val="273330608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1476,7 +1475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204322272"/>
+        <c:axId val="273330608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,7 +1526,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204321712"/>
+        <c:crossAx val="273330048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2456,7 +2455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
@@ -2509,7 +2508,7 @@
         <v>210</v>
       </c>
       <c r="S1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -2559,7 +2558,7 @@
         <v>211</v>
       </c>
       <c r="S2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -2609,7 +2608,7 @@
         <v>214</v>
       </c>
       <c r="S3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -2659,7 +2658,7 @@
         <v>218</v>
       </c>
       <c r="S4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
@@ -3436,7 +3435,7 @@
         <v>167</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -3755,7 +3754,7 @@
         <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.15">
@@ -4069,13 +4068,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -4083,13 +4082,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G22">
         <v>30</v>
@@ -4100,13 +4099,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" t="s">
         <v>233</v>
       </c>
-      <c r="B24" t="s">
-        <v>234</v>
-      </c>
       <c r="C24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -4114,13 +4113,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s">
         <v>235</v>
       </c>
-      <c r="B25" t="s">
-        <v>236</v>
-      </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G25">
         <v>30</v>
@@ -4438,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4539,7 +4538,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="15"/>
       <c r="R5" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4603,7 +4602,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="15"/>
       <c r="R8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4644,7 +4643,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="15"/>
       <c r="R10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
